--- a/importPhieuNhap.xlsx
+++ b/importPhieuNhap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads_D\Thuvien\Thuvien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BAAD59-95C1-4DCA-BD0C-148723DE0561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C86388-FE78-4E71-8697-4DA62AADF19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>J.K.Rowling</t>
   </si>
   <si>
-    <t>TL098</t>
-  </si>
-  <si>
     <t>NXB Tre</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>S0027</t>
+  </si>
+  <si>
+    <t>TL002</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -526,10 +526,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
       <c r="J3">
-        <v>420000.03</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -570,10 +570,10 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="1">
         <v>2004</v>
@@ -582,7 +582,7 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <v>30002020</v>
+        <v>30002</v>
       </c>
     </row>
   </sheetData>

--- a/importPhieuNhap.xlsx
+++ b/importPhieuNhap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads_D\Thuvien\Thuvien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C86388-FE78-4E71-8697-4DA62AADF19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC580368-A4F6-4607-B4E4-48F3777A1026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
